--- a/Documentación/Product_Backlog.xlsx
+++ b/Documentación/Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINTIC\PROGRAMACION\CICLO_3\Proyecto_EOTIA_CAKE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96743EBC-12AC-4264-8C81-444BF66401AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75E498B-D164-4666-9688-D15E0B67E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="1470" windowWidth="28110" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10290" yWindow="1470" windowWidth="28110" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
   <si>
     <t>Sprint Plan</t>
   </si>
@@ -295,6 +295,24 @@
   <si>
     <t>Creación de clases y API
 realizar vista registro cliente</t>
+  </si>
+  <si>
+    <t>Realización de carrito de compras con boton de pago</t>
+  </si>
+  <si>
+    <t>Aplicación con persistencia Relacional</t>
+  </si>
+  <si>
+    <t>Construir Historias de Usuario a desarrollar en Sprint No.4 Trello</t>
+  </si>
+  <si>
+    <t>Creación de vista carrito de compras</t>
+  </si>
+  <si>
+    <t>Creación de catalogo de productos por secciones</t>
+  </si>
+  <si>
+    <t>Creación de botones de conexión redes sociales</t>
   </si>
 </sst>
 </file>
@@ -791,31 +809,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF666699"/>
@@ -833,51 +827,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -914,79 +868,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1330,6 +1212,94 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2033,6 +2003,134 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2047,59 +2145,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="inicia" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="inicia" dataDxfId="51">
       <calculatedColumnFormula>IF(AND(B2&lt;&gt;"",#REF!&lt;&gt;"",#REF!&lt;&gt;""),B2+#REF!,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="fin" dataDxfId="56">
+    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="fin" dataDxfId="50">
       <calculatedColumnFormula>IF(AND(B3&lt;&gt;"",#REF!&lt;&gt;""),B3+#REF!-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="esfuerzo estimado" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="esfuerzo real" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="estado" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="meta" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Velocidad" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="esfuerzo estimado" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="esfuerzo real" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="estado" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="meta" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Velocidad" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A996A541-051E-46AB-8B82-9D57FEC818B6}" name="Tabla22" displayName="Tabla22" ref="A22:I35" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A996A541-051E-46AB-8B82-9D57FEC818B6}" name="Tabla22" displayName="Tabla22" ref="A22:I35" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{239D033E-34B9-4070-AABF-C42E4E346BF0}" name="Sprint" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{92F6BBBA-4818-446B-A250-DDDBE47635C1}" name="inicia" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{239D033E-34B9-4070-AABF-C42E4E346BF0}" name="Sprint" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{92F6BBBA-4818-446B-A250-DDDBE47635C1}" name="inicia" dataDxfId="39">
       <calculatedColumnFormula>IF(AND(B22&lt;&gt;"",#REF!&lt;&gt;"",#REF!&lt;&gt;""),B22+#REF!,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{31354777-E3A2-4EAE-8D43-268D38152EA6}" name="fin" dataDxfId="44">
+    <tableColumn id="4" xr3:uid="{31354777-E3A2-4EAE-8D43-268D38152EA6}" name="fin" dataDxfId="38">
       <calculatedColumnFormula>IF(AND(B23&lt;&gt;"",#REF!&lt;&gt;""),B23+#REF!-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{23F01ACA-9C47-4D39-AAE0-CFD5B9354777}" name="esfuerzo estimado" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{5765EE5A-D9F8-4E0E-8664-7C29BF5C42BD}" name="esfuerzo real" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{24DC114D-9235-42E6-A78D-4398C2F83CC2}" name="estado" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{4874E86D-AFBE-4507-BB2E-79275AD3D712}" name="meta" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{E5AD8CEB-0164-4E83-931F-F85D4C2867DB}" name="Velocidad" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{78BE8913-46C7-4AE7-AA79-43A94C319749}" name="% Error estimación" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{23F01ACA-9C47-4D39-AAE0-CFD5B9354777}" name="esfuerzo estimado" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{5765EE5A-D9F8-4E0E-8664-7C29BF5C42BD}" name="esfuerzo real" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{24DC114D-9235-42E6-A78D-4398C2F83CC2}" name="estado" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{4874E86D-AFBE-4507-BB2E-79275AD3D712}" name="meta" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{E5AD8CEB-0164-4E83-931F-F85D4C2867DB}" name="Velocidad" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{78BE8913-46C7-4AE7-AA79-43A94C319749}" name="% Error estimación" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I15" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="ID HU" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="ID HU" dataDxfId="17"/>
     <tableColumn id="10" xr3:uid="{242AEC1D-9D33-4DE3-98C4-1AD31E8760C0}" name="NOMBRE HISTORIA"/>
-    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name=" HISTORIA USUARIO" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Estado" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="PUNTUACIÓN" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="SPRINT" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="PRIORIDAD" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="TIPO DE HISTORIA" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="COMENTARIOS" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name=" HISTORIA USUARIO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Estado" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="PUNTUACIÓN" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="SPRINT" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="PRIORIDAD" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="TIPO DE HISTORIA" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="COMENTARIOS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2305,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3203,29 +3301,332 @@
       <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C46" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2">
+        <v>22</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D48" s="3">
+        <v>15</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C49" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D49" s="3">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6">
+        <v>44816</v>
+      </c>
+      <c r="C50" s="6">
+        <v>44822</v>
+      </c>
+      <c r="D50" s="2">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2">
+        <v>15</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="40"/>
+    </row>
+    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="42"/>
+    </row>
+    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="50">
+        <f>SUM(D43:D57)</f>
+        <v>86</v>
+      </c>
+      <c r="E59" s="50">
+        <f>SUM(E43:E57)</f>
+        <v>88</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4149,7 +4550,9 @@
     <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A19:C19"/>
@@ -4157,90 +4560,140 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="37" stopIfTrue="1">
       <formula>$F17="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="38" stopIfTrue="1">
       <formula>$F17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 F3:F15 C13:C15 B13:B14 B3:C12">
-    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="39" stopIfTrue="1">
       <formula>$F3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 F3:G9 D4:E11 C17:G17 B3:E3 A16:B17 F10:F15 C13:I16 B12:I12 A3:C9 B10:C11 B13:B15 A10:A15">
-    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="40" stopIfTrue="1">
       <formula>$F3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 F3:F15">
-    <cfRule type="cellIs" dxfId="22" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 C17:E17 C3:E3 G17 D4:E11 G3:G9 A16:B17 B3:B10 C4:C10 C13:I16 B11:C11 B12:I12 B13:B15 A3:A15">
-    <cfRule type="expression" dxfId="21" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="42" stopIfTrue="1">
       <formula>OR($F3="Planned",$F3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:E39">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="15" stopIfTrue="1">
       <formula>$F37="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:E39">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="16" stopIfTrue="1">
       <formula>$F37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F23:F35 C33:C35 B33:B34 B23:C32">
-    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="17" stopIfTrue="1">
       <formula>$F23="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31 F23:G24 C37:G37 A36:B37 F30:F36 C33:E36 G32:I36 A23:A35 B24:B35 B23:E32 F27:G29 F25:F26">
-    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="18" stopIfTrue="1">
       <formula>$F23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F23:F35">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31 C37:E37 C23:E23 G37 D24:E31 G23:G24 C33:I36 B31:C31 B32:I32 A23:B37 C24:C32 G27:G29">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
       <formula>OR($F23="Planned",$F23="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
       <formula>$F25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="14" stopIfTrue="1">
       <formula>OR($F25="Planned",$F25="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="11" stopIfTrue="1">
       <formula>$F26="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="12" stopIfTrue="1">
       <formula>OR($F26="Planned",$F26="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D58:E59">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>$F57="Planned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:E59">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+      <formula>$F57="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57 F43:F55 C53:C55 B53:B54 B43:C52">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>$F43="Planned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:G44 C57:G57 F50:F56 G51:G56 F47:G49 F45:F46 A43:B57 C43:E56">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$F43="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57 F43:F55">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Unplanned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51 C57:E57 C43:E43 G57 D44:E51 G43:G44 C53:G56 B51:C51 B52:G52 G47:G49 A43:B57 C44:C52">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>OR($F43="Planned",$F43="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>$F45="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>OR($F45="Planned",$F45="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>$F46="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>OR($F46="Planned",$F46="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F16:F17 F36:F37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F16:F17 F36:F37 F56:F57" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Planned,Ongoing,Released,Unplanned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F15 F23:F35" xr:uid="{69A6167B-6BA9-43FA-AB53-A11B7318D79E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F15 F23:F35 F43:F55" xr:uid="{69A6167B-6BA9-43FA-AB53-A11B7318D79E}">
       <formula1>"Planificado,En curso,Realizado,No planificado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4260,8 +4713,8 @@
   </sheetPr>
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4647,7 +5100,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="75">
         <v>1</v>
@@ -4735,11 +5188,21 @@
       <c r="D11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19"/>
+      <c r="E11" s="18">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -4772,9 +5235,15 @@
         <v>27</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="15"/>
       <c r="K12" s="21"/>
@@ -4808,9 +5277,15 @@
         <v>27</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -31944,58 +32419,58 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 D8:H15 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15 D8:H15">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 D8:H15 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15 D8:H15">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 D8:H15 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15 D8:H15">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
       <formula>$D19="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
       <formula>$D19="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="8" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="21" stopIfTrue="1">
       <formula>$D19="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="7" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="22" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="6" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="5" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C15 C3:C12">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C15 C3:C12">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentación/Product_Backlog.xlsx
+++ b/Documentación/Product_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINTIC\PROGRAMACION\CICLO_3\Proyecto_EOTIA_CAKE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75E498B-D164-4666-9688-D15E0B67E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC224BA9-97F5-4BF6-802D-9E80DB408A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="1470" windowWidth="28110" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="91">
   <si>
     <t>Sprint Plan</t>
   </si>
@@ -314,6 +314,21 @@
   <si>
     <t>Creación de botones de conexión redes sociales</t>
   </si>
+  <si>
+    <t>Actulización de vista carrito de compras</t>
+  </si>
+  <si>
+    <t>Actulización de base de datos</t>
+  </si>
+  <si>
+    <t>Conexión del backend con el fronted de la vista carrito de compras</t>
+  </si>
+  <si>
+    <t>Despliegue en nube Backend</t>
+  </si>
+  <si>
+    <t>Despliegue en nube de Base de datos</t>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +440,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,8 +471,14 @@
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -579,11 +600,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -805,11 +850,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="86">
     <dxf>
       <font>
         <color rgb="FF666699"/>
@@ -821,14 +882,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -868,6 +921,14 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -885,6 +946,38 @@
     <dxf>
       <font>
         <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -2093,6 +2186,86 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2145,59 +2318,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A2:I15" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="inicia" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="inicia" dataDxfId="55">
       <calculatedColumnFormula>IF(AND(B2&lt;&gt;"",#REF!&lt;&gt;"",#REF!&lt;&gt;""),B2+#REF!,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="fin" dataDxfId="50">
+    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="fin" dataDxfId="54">
       <calculatedColumnFormula>IF(AND(B3&lt;&gt;"",#REF!&lt;&gt;""),B3+#REF!-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="esfuerzo estimado" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="esfuerzo real" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="estado" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="meta" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Velocidad" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="esfuerzo estimado" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="esfuerzo real" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="estado" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="meta" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Velocidad" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A996A541-051E-46AB-8B82-9D57FEC818B6}" name="Tabla22" displayName="Tabla22" ref="A22:I35" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A996A541-051E-46AB-8B82-9D57FEC818B6}" name="Tabla22" displayName="Tabla22" ref="A22:I35" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{239D033E-34B9-4070-AABF-C42E4E346BF0}" name="Sprint" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{92F6BBBA-4818-446B-A250-DDDBE47635C1}" name="inicia" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{239D033E-34B9-4070-AABF-C42E4E346BF0}" name="Sprint" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{92F6BBBA-4818-446B-A250-DDDBE47635C1}" name="inicia" dataDxfId="43">
       <calculatedColumnFormula>IF(AND(B22&lt;&gt;"",#REF!&lt;&gt;"",#REF!&lt;&gt;""),B22+#REF!,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{31354777-E3A2-4EAE-8D43-268D38152EA6}" name="fin" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{31354777-E3A2-4EAE-8D43-268D38152EA6}" name="fin" dataDxfId="42">
       <calculatedColumnFormula>IF(AND(B23&lt;&gt;"",#REF!&lt;&gt;""),B23+#REF!-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{23F01ACA-9C47-4D39-AAE0-CFD5B9354777}" name="esfuerzo estimado" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{5765EE5A-D9F8-4E0E-8664-7C29BF5C42BD}" name="esfuerzo real" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{24DC114D-9235-42E6-A78D-4398C2F83CC2}" name="estado" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{4874E86D-AFBE-4507-BB2E-79275AD3D712}" name="meta" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{E5AD8CEB-0164-4E83-931F-F85D4C2867DB}" name="Velocidad" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{78BE8913-46C7-4AE7-AA79-43A94C319749}" name="% Error estimación" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{23F01ACA-9C47-4D39-AAE0-CFD5B9354777}" name="esfuerzo estimado" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{5765EE5A-D9F8-4E0E-8664-7C29BF5C42BD}" name="esfuerzo real" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{24DC114D-9235-42E6-A78D-4398C2F83CC2}" name="estado" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{4874E86D-AFBE-4507-BB2E-79275AD3D712}" name="meta" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{E5AD8CEB-0164-4E83-931F-F85D4C2867DB}" name="Velocidad" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{78BE8913-46C7-4AE7-AA79-43A94C319749}" name="% Error estimación" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I15" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="ID HU" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="ID HU" dataDxfId="21"/>
     <tableColumn id="10" xr3:uid="{242AEC1D-9D33-4DE3-98C4-1AD31E8760C0}" name="NOMBRE HISTORIA"/>
-    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name=" HISTORIA USUARIO" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Estado" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="PUNTUACIÓN" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="SPRINT" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="PRIORIDAD" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="TIPO DE HISTORIA" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="COMENTARIOS" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name=" HISTORIA USUARIO" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Estado" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="PUNTUACIÓN" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="SPRINT" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="PRIORIDAD" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="TIPO DE HISTORIA" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="COMENTARIOS" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2403,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2585,7 +2758,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
@@ -2615,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>28</v>
@@ -2642,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -2702,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>39</v>
@@ -2729,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>41</v>
@@ -2756,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>40</v>
@@ -2928,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G23" s="57" t="s">
         <v>52</v>
@@ -2958,7 +3131,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>53</v>
@@ -2988,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>28</v>
@@ -3018,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>54</v>
@@ -3048,7 +3221,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>55</v>
@@ -3075,7 +3248,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>56</v>
@@ -3105,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>57</v>
@@ -3135,7 +3308,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>58</v>
@@ -3162,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>59</v>
@@ -3185,7 +3358,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="2"/>
@@ -3302,26 +3475,32 @@
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="85" t="s">
         <v>14</v>
+      </c>
+      <c r="H42" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="86" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3341,10 +3520,17 @@
         <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G43" s="57" t="s">
         <v>81</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="87">
+        <f>(E43/D43)-1</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3364,10 +3550,17 @@
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="87">
+        <f t="shared" ref="I44:I46" si="3">(E44/D44)-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3387,10 +3580,17 @@
         <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3410,10 +3610,17 @@
         <v>2</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="87">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3433,11 +3640,15 @@
         <v>22</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -3456,13 +3667,20 @@
         <v>15</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="87">
+        <f t="shared" ref="I48:I49" si="4">(E48/D48)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>3</v>
       </c>
@@ -3479,13 +3697,20 @@
         <v>10</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -3502,13 +3727,17 @@
         <v>15</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="89"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -3518,8 +3747,12 @@
         <v>29</v>
       </c>
       <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="89"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -3529,8 +3762,10 @@
         <v>29</v>
       </c>
       <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3539,9 +3774,11 @@
       <c r="F53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="90"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3550,9 +3787,11 @@
       <c r="F54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G54" s="90"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
@@ -3561,18 +3800,22 @@
       <c r="F55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G55" s="90"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="40"/>
-    </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="91"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+    </row>
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -3580,8 +3823,10 @@
       <c r="E57" s="37"/>
       <c r="F57" s="39"/>
       <c r="G57" s="42"/>
-    </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+    </row>
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="81" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3837,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="41"/>
     </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="82" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49"/>
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
@@ -3623,26 +3868,376 @@
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>4</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44823</v>
+      </c>
+      <c r="C63" s="6">
+        <v>44829</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2">
+        <v>15</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="87">
+        <f>(E63/D63)-1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44823</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44829</v>
+      </c>
+      <c r="D64" s="2">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="87">
+        <f t="shared" ref="I64:I66" si="5">(E64/D64)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>4</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44823</v>
+      </c>
+      <c r="C65" s="6">
+        <v>44829</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44823</v>
+      </c>
+      <c r="C66" s="6">
+        <v>44829</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44823</v>
+      </c>
+      <c r="C67" s="6">
+        <v>44829</v>
+      </c>
+      <c r="D67" s="2">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2">
+        <v>22</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="88"/>
+    </row>
+    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>4</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44823</v>
+      </c>
+      <c r="C68" s="6">
+        <v>44829</v>
+      </c>
+      <c r="D68" s="3">
+        <v>15</v>
+      </c>
+      <c r="E68" s="3">
+        <v>15</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="87">
+        <f t="shared" ref="I68:I69" si="6">(E68/D68)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="87" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="89"/>
+    </row>
+    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="89"/>
+    </row>
+    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="90"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+    </row>
+    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="90"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+    </row>
+    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="90"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+    </row>
+    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+    </row>
+    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+    </row>
+    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="41"/>
+    </row>
+    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="50">
+        <f>SUM(D63:D77)</f>
+        <v>56</v>
+      </c>
+      <c r="E79" s="50">
+        <f>SUM(E63:E77)</f>
+        <v>63</v>
+      </c>
+      <c r="G79" s="60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+    </row>
     <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4550,150 +5145,222 @@
     <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="expression" dxfId="71" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="51" stopIfTrue="1">
       <formula>$F17="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E19">
-    <cfRule type="expression" dxfId="70" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="52" stopIfTrue="1">
       <formula>$F17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 F3:F15 C13:C15 B13:B14 B3:C12">
-    <cfRule type="expression" dxfId="69" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="53" stopIfTrue="1">
       <formula>$F3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 F3:G9 D4:E11 C17:G17 B3:E3 A16:B17 F10:F15 C13:I16 B12:I12 A3:C9 B10:C11 B13:B15 A10:A15">
-    <cfRule type="expression" dxfId="68" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="54" stopIfTrue="1">
       <formula>$F3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 F3:F15">
-    <cfRule type="cellIs" dxfId="67" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 C17:E17 C3:E3 G17 D4:E11 G3:G9 A16:B17 B3:B10 C4:C10 C13:I16 B11:C11 B12:I12 B13:B15 A3:A15">
-    <cfRule type="expression" dxfId="66" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="56" stopIfTrue="1">
       <formula>OR($F3="Planned",$F3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:E39">
-    <cfRule type="expression" dxfId="65" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="29" stopIfTrue="1">
       <formula>$F37="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:E39">
-    <cfRule type="expression" dxfId="64" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="30" stopIfTrue="1">
       <formula>$F37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F23:F35 C33:C35 B33:B34 B23:C32">
-    <cfRule type="expression" dxfId="63" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="31" stopIfTrue="1">
       <formula>$F23="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31 F23:G24 C37:G37 A36:B37 F30:F36 C33:E36 G32:I36 A23:A35 B24:B35 B23:E32 F27:G29 F25:F26">
-    <cfRule type="expression" dxfId="62" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="32" stopIfTrue="1">
       <formula>$F23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F23:F35">
-    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31 C37:E37 C23:E23 G37 D24:E31 G23:G24 C33:I36 B31:C31 B32:I32 A23:B37 C24:C32 G27:G29">
-    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
       <formula>OR($F23="Planned",$F23="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="59" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="27" stopIfTrue="1">
       <formula>$F25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="58" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="28" stopIfTrue="1">
       <formula>OR($F25="Planned",$F25="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="57" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="25" stopIfTrue="1">
       <formula>$F26="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="56" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="26" stopIfTrue="1">
       <formula>OR($F26="Planned",$F26="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:E59">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="19" stopIfTrue="1">
       <formula>$F57="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:E59">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="20" stopIfTrue="1">
       <formula>$F57="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 F43:F55 C53:C55 B53:B54 B43:C52">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="21" stopIfTrue="1">
       <formula>$F43="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:G44 C57:G57 F50:F56 G51:G56 F47:G49 F45:F46 A43:B57 C43:E56">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="F43:G44 F50:F56 G51:G56 F47:G49 F45:F46 A43:B57 C43:E56 C57:I57">
+    <cfRule type="expression" dxfId="66" priority="22" stopIfTrue="1">
       <formula>$F43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57 F43:F55">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51 C57:E57 C43:E43 G57 D44:E51 G43:G44 C53:G56 B51:C51 B52:G52 G47:G49 A43:B57 C44:C52">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="G51 C57:E57 C43:E43 D44:E51 G43:G44 C53:G56 B51:C51 B52:G52 G47:G49 A43:B57 C44:C52 G57:I57">
+    <cfRule type="expression" dxfId="64" priority="24" stopIfTrue="1">
       <formula>OR($F43="Planned",$F43="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="17" stopIfTrue="1">
       <formula>$F45="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="18" stopIfTrue="1">
       <formula>OR($F45="Planned",$F45="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="15" stopIfTrue="1">
       <formula>$F46="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="16" stopIfTrue="1">
       <formula>OR($F46="Planned",$F46="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H52:I52">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>$F52="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:I52">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>OR($F52="Planned",$F52="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:E79">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>$F77="Planned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:E79">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>$F77="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77 F63:F75 C73:C75 B73:B74 B63:C72">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>$F63="Planned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63:G64 F70:F76 G71:G76 F67:G69 F65:F66 C77:I77 A63:B77 C63:E76">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>$F63="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77 F63:F75">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Unplanned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71 C77:E77 C63:E63 G63:G64 C73:G76 B72:G72 G67:G69 A63:B70 B73:B77 G77:I77 A64:A77 B64:E71">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+      <formula>OR($F63="Planned",$F63="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>$F65="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>OR($F65="Planned",$F65="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$F66="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>OR($F66="Planned",$F66="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72:I72">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$F72="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72:I72">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>OR($F72="Planned",$F72="Unplanned")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F16:F17 F36:F37 F56:F57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F16:F17 F36:F37 F56:F57 F76:F77" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Planned,Ongoing,Released,Unplanned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F15 F23:F35 F43:F55" xr:uid="{69A6167B-6BA9-43FA-AB53-A11B7318D79E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F15 F23:F35 F43:F55 F63:F75" xr:uid="{69A6167B-6BA9-43FA-AB53-A11B7318D79E}">
       <formula1>"Planificado,En curso,Realizado,No planificado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4713,7 +5380,7 @@
   </sheetPr>
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -32420,57 +33087,57 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15 D8:H15">
-    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="7" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15 D8:H15">
-    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="8" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I20 D3:H4 I2:I3 I8:I14 A27:I981 A2:H2 D5:I7 A3:B15 D8:H15">
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="19" stopIfTrue="1">
       <formula>$D19="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="20" stopIfTrue="1">
       <formula>$D19="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="26" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="21" stopIfTrue="1">
       <formula>$D19="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="25" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="24" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C15 C3:C12">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C15 C3:C12">
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
